--- a/data/excel_files_reduced/test_excel_11_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_11_reduced.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A597BEB-85BD-E548-AEFC-45509D72B65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917FF89-A726-E24D-A21E-9D25CB7F426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9320" yWindow="5880" windowWidth="14400" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Data" sheetId="1" r:id="rId1"/>
+    <sheet name="FinancialData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -370,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -443,15 +443,15 @@
         <v>0.30793053380942653</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H3" si="3">SUM(B$2:B2)</f>
+        <f>SUM(B2:B2)</f>
         <v>1626</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I3" si="4">AVERAGE(B$2:B2)</f>
+        <f>AVERAGE(B2:B2)</f>
         <v>1626</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f t="shared" ref="J2:J3" si="5">IF(G2&gt;0, "Profit", "Loss")</f>
+        <f t="shared" ref="J2:J3" si="3">IF(G2&gt;0, "Profit", "Loss")</f>
         <v>Profit</v>
       </c>
     </row>
@@ -481,15 +481,15 @@
         <v>0.43973714850787388</v>
       </c>
       <c r="H3" s="2">
+        <f t="shared" ref="H3" si="4">SUM(B3:B3)</f>
+        <v>1959</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3" si="5">AVERAGE(B3:B3)</f>
+        <v>1959</v>
+      </c>
+      <c r="J3" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3585</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="4"/>
-        <v>1792.5</v>
-      </c>
-      <c r="J3" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>Profit</v>
       </c>
     </row>
